--- a/biology/Histoire de la zoologie et de la botanique/Muséum_d'histoire_naturelle_de_La_Rochelle/Muséum_d'histoire_naturelle_de_La_Rochelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_d'histoire_naturelle_de_La_Rochelle/Muséum_d'histoire_naturelle_de_La_Rochelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muséum d'histoire naturelle de La Rochelle est un musée d'histoire naturelle français situé dans la ville de La Rochelle, en Charente-Maritime. Il est installé dans l'ancien palais du gouverneur d'Aunis. Le bâtiment est inscrit au titre des monuments historiques par arrêté du 27 octobre 2003[2],[3]. Il est membre du réseau national des collections naturalistes (RECOLNAT)
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muséum d'histoire naturelle de La Rochelle est un musée d'histoire naturelle français situé dans la ville de La Rochelle, en Charente-Maritime. Il est installé dans l'ancien palais du gouverneur d'Aunis. Le bâtiment est inscrit au titre des monuments historiques par arrêté du 27 octobre 2003,. Il est membre du réseau national des collections naturalistes (RECOLNAT)
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire : de l'hôtel de la Tremblay au Muséum d'histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hôtel est construit à l'emplacement de l'ancien jardin des Jésuites pour Jouin de la Tremblay, entre 1708 et 1718, sur les plans de Claude Masse, ingénieur du roi. L'hôtel devient l'hôtel des gouverneurs en 1748. Les aménagements intérieurs sont réalisés par Tourneur. En 1775, la ville fait construire deux ailes, une au sud accolée à l'aile gauche de l'hôtel existant, sur le jardin du collège royal, l'autre au nord du jardin pour les dépendances et les écuries par Nicolas Marie Potain, architecte du roi, et Julien Nassivet, architecte de la ville de la Rochelle, qui avait succédé à son père, Gilles Nassivet.
 Quand Napoléon Ier passe à La Rochelle, en 1808, il donne à la ville les deux ailes pour y installer la bibliothèque publique. L'aile gauche de l'hôtel est réaménagée en 1832 pour y installer les collections d'histoire naturelle données en 1782 à l'Académie des belles-lettres, sciences et arts de La Rochelle par Clément de la Faille qui devient le « muséum Lafaille ». Le jardin est aménagé en jardin botanique.
@@ -520,7 +534,7 @@
 Le palais épiscopal est racheté par la ville en 1910 pour permettre l'extension des musées et du jardin botanique. L'aile droite est prolongée en 1914 jusqu'à la rue Albert-Ier, le long de la rue Alcide-d'Orbigny. Le musée Lafaille est agrandi en 1920. Il est restauré entre 1958 et 1960. Le dolmen de La Jarne est remonté dans le jardin.
 Hôtel bâti au début du 18e siècle, sur plans de Claude Masse. Dans la 2e moitié du 18e siècle, aménagements intérieurs, par Tourneur, et construction d'un bâtiment sur le jardin du collège royal, le long de l'aile gauche, sur plans de Potain architecte du roi et Navisset architecte de la ville, et d'écuries au nord du jardin. Quand l'hôtel est donné en 1808 par l'État à la Ville pour y installer bibliothèque, cabinet d'histoire naturelle et jardin des plantes, il présente trois corps de bâtiments parallèles ; à cette époque, le jardin est aménagé en jardin botanique. L'hôtel, totalement remanié au 19e siècle, présente un plan en U ; en 1832, l'aile gauche est transformée pour recevoir le cabinet d'histoire naturelle Lafaille, le « muséun Lafaille » ; en 1852 s'ouvre, dans le corps de bâtiment nord, le « musée Fleuriau » ; évéché de 1874 à 1903, il reçoit le décor qui subsiste encore. Il est racheté par la ville en 1910, pour permettre l'extension des musées et du jardin botanique. En 1914, l'aile droite est prolongée jusqu'à la rue Albert-1er, le long de la nouvelle rue Alcide-d'Orbigny. En 1920, le musée Lafaille s'étend. Le muséum d'histoire naturelle occupe la totalité des bâtiments. Le cabinet Lafaille a été restauré de 1958 à 1960. Un dolmen, provenant de La Jarne, a été remonté dans le jardin des plantes. Une nouvelle restauration est faite en 1998.
 Le muséum a rouvert le 27 octobre 2007 après dix ans de travaux qui ont coûté 14,4 millions d'euros d'investissement, mais ont permis de créer des réserves climatisées, de réaménager le jardin et surtout de doubler la surface d'exposition (2 300 m2) par rapport à celle qui existait autrefois, en l'augmentant aussi d'un auditorium pour les conférences.
-Les bâtiments sont inscrits au titre des monuments historiques le 27 octobre 2003[2].
+Les bâtiments sont inscrits au titre des monuments historiques le 27 octobre 2003.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Le muséum en images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rez-de Chaussée et premier étage : biologie : zoologie, botanique et environnement.
 			Cabinet de curiosités du naturaliste Clément Lafaille, après 1766. Style Transition, Style Louis XVI et néoclassique. Rez-de-chaussée.
@@ -568,14 +584,14 @@
 			Ptérodactyle rarissime. Adulte, 58 cm d'envergure. Tithonien, 145,5 Millions d’années, provenant d'Allemagne. Achat par le Muséum entre 1872 et 1884
 Second et troisième étage : anthropologie, ethnographie
 			Rahareto, coiffe. Population karaja, Mato Grosso, Brésil. Bois, rotin, plumes, fibres végétales. Collecte et don Jabiru Prod, 2002. Ethnographie 2e, salle 22.
-			Kapkap, ornements de front réservés aux chefs de clan[4] Îles de l'Amirauté, Papouasie-Nouvelle-Guinée. Ethnographie 2e étage, salle 22.
-			Hache cérémonielle (O'Kono), Nouvelle-Calédonie. Bois, tissu, bourre de coco, serpentine, poils de roussette[5].
-			Tête Sao[6], XIIe - XIIIe siècle[7](?) Woutio, Cameroun. Terre cuite, H : 8 cm env. Archéologie, 2e, salle 20.
-			Muziri[8], population bembe[9], plateaux de la vallée du Niari. République du Congo. Tissus, rotin, fibres végétales, laiton, poils. Collecté en 1911. Ethnographie 3e, salle 25.
-			Masque, population Kwele, pigments sur bois, H. 63 cm[10]. République du Congo. Don d'A. Petit-Renaud, 1935. Ethnographie 3e, salle 25.
+			Kapkap, ornements de front réservés aux chefs de clan Îles de l'Amirauté, Papouasie-Nouvelle-Guinée. Ethnographie 2e étage, salle 22.
+			Hache cérémonielle (O'Kono), Nouvelle-Calédonie. Bois, tissu, bourre de coco, serpentine, poils de roussette.
+			Tête Sao, XIIe - XIIIe siècle(?) Woutio, Cameroun. Terre cuite, H : 8 cm env. Archéologie, 2e, salle 20.
+			Muziri, population bembe, plateaux de la vallée du Niari. République du Congo. Tissus, rotin, fibres végétales, laiton, poils. Collecté en 1911. Ethnographie 3e, salle 25.
+			Masque, population Kwele, pigments sur bois, H. 63 cm. République du Congo. Don d'A. Petit-Renaud, 1935. Ethnographie 3e, salle 25.
 			Masque kovave, population elema. Papouasie-Nouvelle-Guinée. Jonc, tapa, fibres végétales, pigments naturels. Acheté à la vente Breton-Éluard de 1931 chez Drouot. 3e. étage.
 			Masque kavat, population baining. Nouvelle Bretagne. Tapa, feuille, armature de rotin, pigments naturels. Papouasie-Nouvelle-Guinée. Ethnographie 3e, salle 25.
-			Moaï kavakava (homme à côtes)[11]. Rapa Nui (Île de Pâques). Bois, obsidienne, os d'oiseau. Collecte sur l'île en 1860. Ethnographie 3e ét. salle 25
+			Moaï kavakava (homme à côtes). Rapa Nui (Île de Pâques). Bois, obsidienne, os d'oiseau. Collecte sur l'île en 1860. Ethnographie 3e ét. salle 25
 </t>
         </is>
       </c>
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,17 +620,19 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le muséum offre 2 300 m2 d'exposition répartis sur deux domaines, histoire naturelle et ethnographie, très bien représentés par des collections de première importance en raison de la qualité des anciennes collectes dont certaines proviennent de marins du XIXe siècle et d'explorateurs de la région, tandis que d'autres proviennent de grandes collections comme celle d'André Breton :
-les collections d'histoire naturelle : présentes depuis le XVIIIe siècle elles sont le fonds du muséum. Un choix de pièces qui correspondent aux premières collections est placé aujourd'hui au rez-de-chaussée dans un cabinet de curiosités exceptionnel. Celui-ci a été parfaitement restauré avec sa couleur initiale rouge corail. Le cabinet Lafaille constitue le plus ancien cabinet d'Histoire Naturelle de France[12].
+les collections d'histoire naturelle : présentes depuis le XVIIIe siècle elles sont le fonds du muséum. Un choix de pièces qui correspondent aux premières collections est placé aujourd'hui au rez-de-chaussée dans un cabinet de curiosités exceptionnel. Celui-ci a été parfaitement restauré avec sa couleur initiale rouge corail. Le cabinet Lafaille constitue le plus ancien cabinet d'Histoire Naturelle de France.
 Au rez-de-chaussée : le territoire littoral, comme espace de vie pour les plantes et les animaux, avec déjà de nombreux animaux naturalisés ;
 Au 1er étage : les collections de zoologie, avec de très nombreux animaux naturalisés, dont la girafe offerte à Charles X par Méhémet Ali (cette histoire a servi à l'interprétation libre d'un film d'animation : Zarafa) ;
 Au 1er étage, salle 13 : le cabinet de dessin ;
-Au sous-sol : les collections de paléontologie[13] et géologie, avec un bel échantillonnage des fossiles des mers primaires et tertiaires ainsi qu'une collection de minéraux.
-Les collections ethnographiques[14] :
-Au 2e étage : une très intéressante collection d'archéologie, qui présente plusieurs salles dédiées à la France mais surtout à l'histoire de l'Afrique. Cette collection couvre la Préhistoire avec les pierres taillées depuis le Paléolithique mais aussi la Protohistoire[15] avec des sculptures figuratives sahéliennes Sao du IIe avant notre ère au XIVe siècle. Quelques rares sculptures sur pierre et céramiques permettent d'évoquer l'Amérique précolombienne en Amérique centrale et du Sud ;
-Aux 2e et 3e : les collections ethnographiques extra-européennes, œuvres majeures : elles concernent essentiellement l'océan Pacifique et l'Afrique. On trouve ainsi de très nombreuses pièces bien documentées et quelques-unes de toute première qualité tant sur le plan esthétique que sur le plan ethnographique en raison de l'ancienneté des collectes et de leur localisation. En particulier deux statuettes en bois : le « Moaï kava kava » bicéphale de l'île de Pâques, la statue Rongo de Mangareva[16], et un masque à cornes Kwele de la République du Congo. Quelques pièces servent de témoignages de la vie des Indiens d'Amérique du Nord et des Indiens d'Amérique du Sud. L'histoire et l'actualité de l'ethnologie sont évoquées dans des salles qui leur sont dédiées : 2e étage : salles 17, 18 et 19, et au 3e étage : salle 25 (documentaire vidéo).</t>
+Au sous-sol : les collections de paléontologie et géologie, avec un bel échantillonnage des fossiles des mers primaires et tertiaires ainsi qu'une collection de minéraux.
+Les collections ethnographiques :
+Au 2e étage : une très intéressante collection d'archéologie, qui présente plusieurs salles dédiées à la France mais surtout à l'histoire de l'Afrique. Cette collection couvre la Préhistoire avec les pierres taillées depuis le Paléolithique mais aussi la Protohistoire avec des sculptures figuratives sahéliennes Sao du IIe avant notre ère au XIVe siècle. Quelques rares sculptures sur pierre et céramiques permettent d'évoquer l'Amérique précolombienne en Amérique centrale et du Sud ;
+Aux 2e et 3e : les collections ethnographiques extra-européennes, œuvres majeures : elles concernent essentiellement l'océan Pacifique et l'Afrique. On trouve ainsi de très nombreuses pièces bien documentées et quelques-unes de toute première qualité tant sur le plan esthétique que sur le plan ethnographique en raison de l'ancienneté des collectes et de leur localisation. En particulier deux statuettes en bois : le « Moaï kava kava » bicéphale de l'île de Pâques, la statue Rongo de Mangareva, et un masque à cornes Kwele de la République du Congo. Quelques pièces servent de témoignages de la vie des Indiens d'Amérique du Nord et des Indiens d'Amérique du Sud. L'histoire et l'actualité de l'ethnologie sont évoquées dans des salles qui leur sont dédiées : 2e étage : salles 17, 18 et 19, et au 3e étage : salle 25 (documentaire vidéo).</t>
         </is>
       </c>
     </row>
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +660,9 @@
           <t>Bibliothèque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bibliothèque dédiée aux sciences naturelles et à l'ethnographie comprend plus de 45000 titres et est accessible au public selon certaines conditions.
 </t>
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,6 +694,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -681,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_de_La_Rochelle</t>
+          <t>Muséum_d'histoire_naturelle_de_La_Rochelle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -699,7 +721,9 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
